--- a/Dataset/Folds/Fold_3/Excel/30.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/30.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6631" uniqueCount="921">
   <si>
     <t>Doi</t>
   </si>
@@ -2732,6 +2732,360 @@
   </si>
   <si>
     <t>[M.%Zhang%NULL%1,                          M.%Zhou%NULL%1,                          F.%Tang%NULL%1,                          Y.%Wang%NULL%1,                          H.%Nie%NULL%1,                          L.%Zhang%NULL%1,                          G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                           Wen%Li%NULL%1,                           Yuan%Yang%NULL%3,                           Yuan%Yang%NULL%0,                           Yu%Wang%NULL%0,                           Qinge%Zhang%NULL%1,                           Teris%Cheung%NULL%1,                           Xinjuan%Wu%NULL%1,                           Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                           Baoren%Tu%NULL%2,                           Jing%Ma%NULL%2,                           Limin%Chen%NULL%2,                           Lei%Fu%NULL%2,                           Yongfang%Jiang%NULL%2,                           Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                           Jing%Wei%NULL%1,                           Huadong%Zhu%NULL%1,                           Yanping%Duan%NULL%1,                           Wenqi%Geng%NULL%1,                           Xia%Hong%NULL%1,                           Jing%Jiang%NULL%1,                           Xiaohui%Zhao%NULL%1,                           Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                           Ziwei%Fang%NULL%2,                           Guoqiang%Hou%NULL%2,                           Mei%Han%NULL%2,                           Xinrong%Xu%NULL%2,                           Jiaxin%Dong%NULL%2,                           Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                           Pinpin%Zheng%NULL%2,                           Pinpin%Zheng%NULL%0,                           Yingnan%Jia%NULL%1,                           Hao%Chen%NULL%1,                           Yimeng%Mao%NULL%1,                           Suhong%Chen%NULL%1,                           Yi%Wang%NULL%1,                           Hua%Fu%NULL%1,                           Junming%Dai%NULL%1,                           Kenji%Hashimoto%NULL%10,                           Kenji%Hashimoto%NULL%0,                           Junling%Gao%NULL%3,                           Junling%Gao%NULL%0,                           Junling%Gao%NULL%0,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0,                           Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                           Simeng%Ma%NULL%4,                           Min%Chen%NULL%2,                           Jun%Yang%NULL%2,                           Ying%Wang%NULL%4,                           Ruiting%Li%NULL%5,                           Lihua%Yao%NULL%4,                           Hanping%Bai%NULL%2,                           Zhongxiang%Cai%NULL%4,                           Bing%Xiang Yang%NULL%2,                           Shaohua%Hu%NULL%4,                           Kerang%Zhang%NULL%2,                           Gaohua%Wang%NULL%4,                           Ci%Ma%NULL%2,                           Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                           Kin Kit%Li%NULL%1,                           Henry Ho Hin%Chan%NULL%1,                           Yuan Yuan%Yi%NULL%1,                           Arthur%Tang%NULL%1,                           Wan In%Wei%NULL%1,                           Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                           Simeng%Ma%NULL%0,                           Ying%Wang%NULL%0,                           Zhongxiang%Cai%NULL%0,                           Jianbo%Hu%NULL%2,                           Ning%Wei%NULL%2,                           Jiang%Wu%NULL%2,                           Hui%Du%NULL%2,                           Tingting%Chen%NULL%2,                           Ruiting%Li%NULL%0,                           Huawei%Tan%NULL%2,                           Lijun%Kang%NULL%2,                           Lihua%Yao%NULL%0,                           Manli%Huang%NULL%2,                           Huafen%Wang%NULL%2,                           Gaohua%Wang%NULL%0,                           Zhongchun%Liu%NULL%0,                           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                           Fan%Zhang%NULL%1,                           Cun%Wei%NULL%1,                           Yanpu%Jia%NULL%1,                           Zhilei%Shang%NULL%1,                           Luna%Sun%NULL%1,                           Lili%Wu%NULL%1,                           Zhuoer%Sun%NULL%1,                           Yaoguang%Zhou%NULL%1,                           Yan%Wang%NULL%1,                           Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                           Hang%Wang%NULL%1,                           Yuxing%Lin%NULL%1,                           Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                           Lan%Deng%NULL%4,                           Lan%Deng%NULL%0,                           Liyan%Zhang%NULL%2,                           Qiuyan%Lang%NULL%2,                           Chunyan%Liao%NULL%2,                           Nannan%Wang%NULL%2,                           Mingqin%Qin%2026142822@qq.com%2,                           Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                           Minh H.%Nguyen%NULL%1,                           Binh N.%Do%NULL%1,                           Cuong Q.%Tran%NULL%2,                           Cuong Q.%Tran%NULL%0,                           Thao T. P.%Nguyen%NULL%1,                           Khue M.%Pham%NULL%2,                           Khue M.%Pham%NULL%0,                           Linh V.%Pham%NULL%2,                           Linh V.%Pham%NULL%0,                           Khanh V.%Tran%NULL%1,                           Trang T.%Duong%NULL%1,                           Tien V.%Tran%NULL%1,                           Thai H.%Duong%NULL%1,                           Tham T.%Nguyen%NULL%1,                           Quyen H.%Nguyen%NULL%1,                           Thanh M.%Hoang%NULL%1,                           Kien T.%Nguyen%NULL%1,                           Thu T. M.%Pham%NULL%1,                           Shwu-Huey%Yang%NULL%1,                           Jane C.-J.%Chao%NULL%2,                           Jane C.-J.%Chao%NULL%0,                           Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                           Francesco%Cinetto%NULL%1,                           Cinzia%Milito%NULL%1,                           Livia%Bonanni%NULL%1,                           Anna Maria%Pesce%NULL%1,                           Giorgia%Leodori%NULL%1,                           Giulia%Garzi%NULL%1,                           Marzia%Miglionico%NULL%1,                           Stefano%Tabolli%NULL%1,                           Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                           Bin%Shen%NULL%1,                           Min%Zhao%NULL%1,                           Zhen%Wang%NULL%2,                           Zhen%Wang%NULL%0,                           Bin%Xie%NULL%1,                           Yifeng%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                           Sarvodaya%Tripathy%NULL%1,                           Sujita Kumar%Kar%NULL%1,                           Nivedita%Sharma%NULL%1,                           Sudhir Kumar%Verma%NULL%1,                           Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                           Nicholas W.S.%Chew%NULL%1,                           Grace K.H.%Lee%NULL%1,                           Mingxue%Jing%NULL%1,                           Yihui%Goh%NULL%1,                           Leonard L.L.%Yeo%NULL%1,                           Ka%Zhang%NULL%1,                           Howe-Keat%Chin%NULL%1,                           Aftab%Ahmad%NULL%1,                           Faheem Ahmed%Khan%NULL%1,                           Ganesh Napolean%Shanmugam%NULL%1,                           Bernard P.L.%Chan%NULL%1,                           Sibi%Sunny%NULL%1,                           Bharatendu%Chandra%NULL%1,                           Jonathan J.Y.%Ong%NULL%1,                           Prakash R.%Paliwal%NULL%1,                           Lily Y.H.%Wong%NULL%1,                           Renarebecca%Sagayanathan%NULL%1,                           Jin Tao%Chen%NULL%1,                           Alison Ying%Ying Ng%NULL%1,                           Hock Luen%Teoh%NULL%1,                           Cyrus S.%Ho%NULL%3,                           Roger C.%Ho%NULL%5,                           Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                           Riyu%Pan%NULL%5,                           Riyu%Pan%NULL%0,                           Xiaoyang%Wan%NULL%3,                           Yilin%Tan%NULL%3,                           Linkang%Xu%NULL%3,                           Cyrus S.%Ho%NULL%0,                           Roger C.%Ho%NULL%0,                           Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                           Marina%Serper%NULL%1,                           Lauren%Opsasnick%NULL%1,                           Rachel M.%O'Conor%NULL%1,                           Laura M.%Curtis%NULL%1,                           Julia Yoshino%Benavente%NULL%1,                           Guisselle%Wismer%NULL%1,                           Stephanie%Batio%NULL%1,                           Morgan%Eifler%NULL%1,                           Pauline%Zheng%NULL%1,                           Andrea%Russell%NULL%1,                           Marina%Arvanitis%NULL%1,                           Daniela%Ladner%NULL%1,                           Mary%Kwasny%NULL%1,                           Stephen D.%Persell%NULL%1,                           Theresa%Rowe%NULL%1,                           Jeffrey A.%Linder%NULL%1,                           Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                           Yan%Zhang%NULL%2,                           Desheng%Kong%NULL%2,                           Shiyue%Li%NULL%2,                           Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                           Zhenxin%Liao%NULL%2,                           Haojie%Huang%NULL%2,                           Boyue%Jiang%NULL%2,                           Xueyan%Zhang%NULL%2,                           Yingwen%Wang%NULL%2,                           Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                           Kun%Wang%NULL%0,                           Lu%Yin%NULL%0,                           Wen-feng%Zhao%NULL%1,                           Qing%Xue%NULL%1,                           Mao%Peng%NULL%1,                           Bao-quan%Min%NULL%1,                           Qing%Tian%NULL%1,                           Hai-xia%Leng%NULL%1,                           Jia-lin%Du%NULL%1,                           Hong%Chang%NULL%1,                           Yuan%Yang%NULL%0,                           Wei%Li%NULL%1,                           Fang-fang%Shangguan%NULL%1,                           Tian-yi%Yan%NULL%1,                           Hui-qing%Dong%NULL%1,                           Ying%Han%NULL%1,                           Yu-ping%Wang%NULL%1,                           Fiammetta%Cosci%NULL%1,                           Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                           Zheng Feei%Ma%NULL%4,                           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                           M.%Zhou%NULL%1,                           F.%Tang%NULL%1,                           Y.%Wang%NULL%1,                           H.%Nie%NULL%1,                           L.%Zhang%NULL%1,                           G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%2,                            Wen%Li%NULL%1,                            Yuan%Yang%NULL%3,                            Yuan%Yang%NULL%0,                            Yu%Wang%NULL%0,                            Qinge%Zhang%NULL%1,                            Teris%Cheung%NULL%1,                            Xinjuan%Wu%NULL%1,                            Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%2,                            Baoren%Tu%NULL%2,                            Jing%Ma%NULL%2,                            Limin%Chen%NULL%2,                            Lei%Fu%NULL%2,                            Yongfang%Jiang%NULL%2,                            Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%1,                            Jing%Wei%NULL%1,                            Huadong%Zhu%NULL%1,                            Yanping%Duan%NULL%1,                            Wenqi%Geng%NULL%1,                            Xia%Hong%NULL%1,                            Jing%Jiang%NULL%1,                            Xiaohui%Zhao%NULL%1,                            Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%2,                            Ziwei%Fang%NULL%2,                            Guoqiang%Hou%NULL%2,                            Mei%Han%NULL%2,                            Xinrong%Xu%NULL%2,                            Jiaxin%Dong%NULL%2,                            Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%1,                            Pinpin%Zheng%NULL%2,                            Pinpin%Zheng%NULL%0,                            Yingnan%Jia%NULL%1,                            Hao%Chen%NULL%1,                            Yimeng%Mao%NULL%1,                            Suhong%Chen%NULL%1,                            Yi%Wang%NULL%1,                            Hua%Fu%NULL%1,                            Junming%Dai%NULL%1,                            Kenji%Hashimoto%NULL%10,                            Kenji%Hashimoto%NULL%0,                            Junling%Gao%NULL%3,                            Junling%Gao%NULL%0,                            Junling%Gao%NULL%0,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0,                            Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%2,                            Simeng%Ma%NULL%4,                            Min%Chen%NULL%2,                            Jun%Yang%NULL%2,                            Ying%Wang%NULL%4,                            Ruiting%Li%NULL%5,                            Lihua%Yao%NULL%4,                            Hanping%Bai%NULL%2,                            Zhongxiang%Cai%NULL%4,                            Bing%Xiang Yang%NULL%2,                            Shaohua%Hu%NULL%4,                            Kerang%Zhang%NULL%2,                            Gaohua%Wang%NULL%4,                            Ci%Ma%NULL%2,                            Zhongchun%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0,                            Kin Kit%Li%NULL%1,                            Henry Ho Hin%Chan%NULL%1,                            Yuan Yuan%Yi%NULL%1,                            Arthur%Tang%NULL%1,                            Wan In%Wei%NULL%1,                            Samuel Yeung Shan%Wong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%5,                            Simeng%Ma%NULL%0,                            Ying%Wang%NULL%0,                            Zhongxiang%Cai%NULL%0,                            Jianbo%Hu%NULL%2,                            Ning%Wei%NULL%2,                            Jiang%Wu%NULL%2,                            Hui%Du%NULL%2,                            Tingting%Chen%NULL%2,                            Ruiting%Li%NULL%0,                            Huawei%Tan%NULL%2,                            Lijun%Kang%NULL%2,                            Lihua%Yao%NULL%0,                            Manli%Huang%NULL%2,                            Huafen%Wang%NULL%2,                            Gaohua%Wang%NULL%0,                            Zhongchun%Liu%NULL%0,                            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%2,                            Fan%Zhang%NULL%1,                            Cun%Wei%NULL%1,                            Yanpu%Jia%NULL%1,                            Zhilei%Shang%NULL%1,                            Luna%Sun%NULL%1,                            Lili%Wu%NULL%1,                            Zhuoer%Sun%NULL%1,                            Yaoguang%Zhou%NULL%1,                            Yan%Wang%NULL%1,                            Weizhi%Liu%13024141970@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%3,                            Hang%Wang%NULL%1,                            Yuxing%Lin%NULL%1,                            Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%2,                            Lan%Deng%NULL%4,                            Lan%Deng%NULL%0,                            Liyan%Zhang%NULL%2,                            Qiuyan%Lang%NULL%2,                            Chunyan%Liao%NULL%2,                            Nannan%Wang%NULL%2,                            Mingqin%Qin%2026142822@qq.com%2,                            Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%1,                            Minh H.%Nguyen%NULL%1,                            Binh N.%Do%NULL%1,                            Cuong Q.%Tran%NULL%2,                            Cuong Q.%Tran%NULL%0,                            Thao T. P.%Nguyen%NULL%1,                            Khue M.%Pham%NULL%2,                            Khue M.%Pham%NULL%0,                            Linh V.%Pham%NULL%2,                            Linh V.%Pham%NULL%0,                            Khanh V.%Tran%NULL%1,                            Trang T.%Duong%NULL%1,                            Tien V.%Tran%NULL%1,                            Thai H.%Duong%NULL%1,                            Tham T.%Nguyen%NULL%1,                            Quyen H.%Nguyen%NULL%1,                            Thanh M.%Hoang%NULL%1,                            Kien T.%Nguyen%NULL%1,                            Thu T. M.%Pham%NULL%1,                            Shwu-Huey%Yang%NULL%1,                            Jane C.-J.%Chao%NULL%2,                            Jane C.-J.%Chao%NULL%0,                            Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%1,                            Francesco%Cinetto%NULL%1,                            Cinzia%Milito%NULL%1,                            Livia%Bonanni%NULL%1,                            Anna Maria%Pesce%NULL%1,                            Giorgia%Leodori%NULL%1,                            Giulia%Garzi%NULL%1,                            Marzia%Miglionico%NULL%1,                            Stefano%Tabolli%NULL%1,                            Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%1,                            Bin%Shen%NULL%1,                            Min%Zhao%NULL%1,                            Zhen%Wang%NULL%2,                            Zhen%Wang%NULL%0,                            Bin%Xie%NULL%1,                            Yifeng%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%1,                            Sarvodaya%Tripathy%NULL%1,                            Sujita Kumar%Kar%NULL%1,                            Nivedita%Sharma%NULL%1,                            Sudhir Kumar%Verma%NULL%1,                            Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%2,                            Nicholas W.S.%Chew%NULL%1,                            Grace K.H.%Lee%NULL%1,                            Mingxue%Jing%NULL%1,                            Yihui%Goh%NULL%1,                            Leonard L.L.%Yeo%NULL%1,                            Ka%Zhang%NULL%1,                            Howe-Keat%Chin%NULL%1,                            Aftab%Ahmad%NULL%1,                            Faheem Ahmed%Khan%NULL%1,                            Ganesh Napolean%Shanmugam%NULL%1,                            Bernard P.L.%Chan%NULL%1,                            Sibi%Sunny%NULL%1,                            Bharatendu%Chandra%NULL%1,                            Jonathan J.Y.%Ong%NULL%1,                            Prakash R.%Paliwal%NULL%1,                            Lily Y.H.%Wong%NULL%1,                            Renarebecca%Sagayanathan%NULL%1,                            Jin Tao%Chen%NULL%1,                            Alison Ying%Ying Ng%NULL%1,                            Hock Luen%Teoh%NULL%1,                            Cyrus S.%Ho%NULL%3,                            Roger C.%Ho%NULL%5,                            Vijay K.%Sharma%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%4,                            Riyu%Pan%NULL%5,                            Riyu%Pan%NULL%0,                            Xiaoyang%Wan%NULL%3,                            Yilin%Tan%NULL%3,                            Linkang%Xu%NULL%3,                            Cyrus S.%Ho%NULL%0,                            Roger C.%Ho%NULL%0,                            Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%1,                            Marina%Serper%NULL%1,                            Lauren%Opsasnick%NULL%1,                            Rachel M.%O'Conor%NULL%1,                            Laura M.%Curtis%NULL%1,                            Julia Yoshino%Benavente%NULL%1,                            Guisselle%Wismer%NULL%1,                            Stephanie%Batio%NULL%1,                            Morgan%Eifler%NULL%1,                            Pauline%Zheng%NULL%1,                            Andrea%Russell%NULL%1,                            Marina%Arvanitis%NULL%1,                            Daniela%Ladner%NULL%1,                            Mary%Kwasny%NULL%1,                            Stephen D.%Persell%NULL%1,                            Theresa%Rowe%NULL%1,                            Jeffrey A.%Linder%NULL%1,                            Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%2,                            Yan%Zhang%NULL%2,                            Desheng%Kong%NULL%2,                            Shiyue%Li%NULL%2,                            Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%2,                            Zhenxin%Liao%NULL%2,                            Haojie%Huang%NULL%2,                            Boyue%Jiang%NULL%2,                            Xueyan%Zhang%NULL%2,                            Yingwen%Wang%NULL%2,                            Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%3,                            Kun%Wang%NULL%0,                            Lu%Yin%NULL%0,                            Wen-feng%Zhao%NULL%1,                            Qing%Xue%NULL%1,                            Mao%Peng%NULL%1,                            Bao-quan%Min%NULL%1,                            Qing%Tian%NULL%1,                            Hai-xia%Leng%NULL%1,                            Jia-lin%Du%NULL%1,                            Hong%Chang%NULL%1,                            Yuan%Yang%NULL%0,                            Wei%Li%NULL%1,                            Fang-fang%Shangguan%NULL%1,                            Tian-yi%Yan%NULL%1,                            Hui-qing%Dong%NULL%1,                            Ying%Han%NULL%1,                            Yu-ping%Wang%NULL%1,                            Fiammetta%Cosci%NULL%1,                            Hong-xing%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%4,                            Zheng Feei%Ma%NULL%4,                            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%1,                            M.%Zhou%NULL%1,                            F.%Tang%NULL%1,                            Y.%Wang%NULL%1,                            H.%Nie%NULL%1,                            L.%Zhang%NULL%1,                            G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0, Wen%Li%NULL%3, Yuan%Yang%NULL%9, Yuan%Yang%NULL%0, Yu%Wang%NULL%0, Qinge%Zhang%NULL%2, Teris%Cheung%NULL%3, Xinjuan%Wu%NULL%3, Yu-Tao%Xiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0, Baoren%Tu%NULL%2, Jing%Ma%NULL%6, Limin%Chen%NULL%2, Lei%Fu%NULL%2, Yongfang%Jiang%NULL%2, Quan%Zhuang%NULL%2]</t>
+  </si>
+  <si>
+    <t>International Scientific Literature, Inc.</t>
+  </si>
+  <si>
+    <t>[Jinya%Cao%NULL%0, Jing%Wei%NULL%1, Huadong%Zhu%NULL%1, Yanping%Duan%NULL%1, Wenqi%Geng%NULL%1, Xia%Hong%NULL%1, Jing%Jiang%NULL%1, Xiaohui%Zhao%NULL%1, Boheng%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0, Ziwei%Fang%NULL%2, Guoqiang%Hou%NULL%2, Mei%Han%NULL%2, Xinrong%Xu%NULL%2, Jiaxin%Dong%NULL%2, Jianzhong%Zheng%zhengjj@czmc.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge citizens expose to social media during a novel coronavirus disease (COVID-19) outbroke in Wuhan, China.
+ We assess the prevalence of mental health problems and examine their association with social media exposure.
+ A cross-sectional study among Chinese citizens aged≥18 years old was conducted during Jan 31 to Feb 2, 2020. Online survey was used to do rapid assessment.
+ Total of 4872 participants from 31 provinces and autonomous regions were involved in the current study.
+ Besides demographics and social media exposure (SME), depression was assessed by The Chinese version of WHO-Five Well-Being Index (WHO-5) and anxiety was assessed by Chinese version of generalized anxiety disorder scale (GAD-7).
+ multivariable logistic regressions were used to identify associations between social media exposure with mental health problems after controlling for covariates.
+ The prevalence of depression, anxiety and combination of depression and anxiety (CDA) was 48.3% (95%CI: 46.9%-49.7%), 22.6% (95%CI: 21.4%-23.8%) and 19.4% (95%CI: 18.3%-20.6%) during COVID-19 outbroke in Wuhan, China.
+ More than 80% (95%CI:80.9%-83.1%) of participants reported frequently exposed to social media.
+ After controlling for covariates, frequently SME was positively associated with high odds of anxiety (OR = 1.72, 95%CI: 1.31–2.26) and CDA (OR = 1.91, 95%CI: 1.52–2.41) compared with less SME.
+ Our findings show there are high prevalence of mental health problems, which positively associated with frequently SME during the COVID-19 outbreak.
+ These findings implicated the government need pay more attention to mental health problems, especially depression and anxiety among general population and combating with “infodemic” while combating during public health emergency.
+</t>
+  </si>
+  <si>
+    <t>[Junling%Gao%NULL%0, Pinpin%Zheng%NULL%2, Pinpin%Zheng%NULL%0, Yingnan%Jia%NULL%1, Hao%Chen%NULL%1, Yimeng%Mao%NULL%1, Suhong%Chen%NULL%1, Yi%Wang%NULL%1, Hua%Fu%NULL%1, Junming%Dai%NULL%1, Kenji%Hashimoto%NULL%10, Kenji%Hashimoto%NULL%0, Junling%Gao%NULL%0, Junling%Gao%NULL%0, Junling%Gao%NULL%0, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0, Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Medical staff experience mental health disturb during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0, Simeng%Ma%NULL%8, Min%Chen%NULL%0, Jun%Yang%NULL%3, Ying%Wang%NULL%0, Ruiting%Li%NULL%10, Lihua%Yao%NULL%7, Hanping%Bai%NULL%2, Zhongxiang%Cai%NULL%0, Bing%Xiang Yang%NULL%2, Shaohua%Hu%NULL%7, Kerang%Zhang%NULL%2, Gaohua%Wang%NULL%8, Ci%Ma%NULL%2, Zhongchun%Liu%NULL%9]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During the early phase of the coronavirus disease epidemic in Hong Kong, 1,715 survey respondents reported high levels of perceived risk, mild anxiety, and adoption of personal-hygiene, travel-avoidance, and social-distancing measures.
+ Widely adopted individual precautionary measures, coupled with early government actions, might slow transmission early in the outbreak.
+</t>
+  </si>
+  <si>
+    <t>[Kin On%Kwok%NULL%0, Kin Kit%Li%NULL%1, Henry Ho Hin%Chan%NULL%1, Yuan Yuan%Yi%NULL%1, Arthur%Tang%NULL%1, Wan In%Wei%NULL%1, Samuel Yeung Shan%Wong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%0, Ying%Wang%NULL%0, Zhongxiang%Cai%NULL%0, Jianbo%Hu%NULL%5, Ning%Wei%NULL%5, Jiang%Wu%NULL%6, Hui%Du%NULL%7, Tingting%Chen%NULL%5, Ruiting%Li%NULL%0, Huawei%Tan%NULL%5, Lijun%Kang%NULL%0, Lihua%Yao%NULL%0, Manli%Huang%NULL%5, Huafen%Wang%NULL%5, Gaohua%Wang%NULL%0, Zhongchun%Liu%NULL%0, Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The prevalence of posttraumatic stress symptoms (PTSS) in China hardest-hit areas a month after the COVID-19 outbreak was 7%.
+</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0, Fan%Zhang%NULL%0, Cun%Wei%NULL%2, Yanpu%Jia%NULL%3, Zhilei%Shang%NULL%3, Luna%Sun%NULL%2, Lili%Wu%NULL%2, Zhuoer%Sun%NULL%4, Yaoguang%Zhou%NULL%3, Yan%Wang%NULL%0, Weizhi%Liu%13024141970@163.com%4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              The psychological state of medical staff during the COVID-19 pandemic.
+</t>
+  </si>
+  <si>
+    <t>[Wen%Lu%luwen67@sina.com%0, Hang%Wang%NULL%3, Yuxing%Lin%NULL%3, Li%Li%lilifuzhou@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0, Lan%Deng%NULL%4, Lan%Deng%NULL%0, Liyan%Zhang%NULL%2, Qiuyan%Lang%NULL%2, Chunyan%Liao%NULL%2, Nannan%Wang%NULL%2, Mingqin%Qin%2026142822@qq.com%2, Huiqiao%Huang%820325832@qq.com%2]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) epidemic affects people’s health and health-related quality of life (HRQoL), especially in those who have suspected COVID-19 symptoms (S-COVID-19-S).
+ We examined the effect of modifications of health literacy (HL) on depression and HRQoL.
+ A cross-sectional study was conducted from 14 February to 2 March 2020. 3947 participants were recruited from outpatient departments of nine hospitals and health centers across Vietnam.
+ The interviews were conducted using printed questionnaires including participants’ characteristics, clinical parameters, health behaviors, HL, depression, and HRQoL.
+ People with S-COVID-19-S had a higher depression likelihood (OR, 2.88; p &amp;lt; 0.001), lower HRQoL-score (B, −7.92; p &amp;lt; 0.001).
+ In comparison to people without S-COVID-19-S and low HL, those with S-COVID-19-S and low HL had 9.70 times higher depression likelihood (p &amp;lt; 0.001), 20.62 lower HRQoL-score (p &amp;lt; 0.001), for the people without S-COVID-19-S, 1 score increment of HL resulted in 5% lower depression likelihood (p &amp;lt; 0.001) and 0.45 higher HRQoL-score (p &amp;lt; 0.001), while for those people with S-COVID-19-S, 1 score increment of HL resulted in a 4% lower depression likelihood (p = 0.004) and 0.43 higher HRQoL-score (p &amp;lt; 0.001).
+ People with S-COVID-19-S had a higher depression likelihood and lower HRQoL than those without.
+ HL shows a protective effect on depression and HRQoL during the epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Hoang C.%Nguyen%NULL%0, Minh H.%Nguyen%NULL%1, Binh N.%Do%NULL%1, Cuong Q.%Tran%NULL%2, Cuong Q.%Tran%NULL%0, Thao T. P.%Nguyen%NULL%1, Khue M.%Pham%NULL%2, Khue M.%Pham%NULL%0, Linh V.%Pham%NULL%2, Linh V.%Pham%NULL%0, Khanh V.%Tran%NULL%1, Trang T.%Duong%NULL%1, Tien V.%Tran%NULL%1, Thai H.%Duong%NULL%1, Tham T.%Nguyen%NULL%1, Quyen H.%Nguyen%NULL%1, Thanh M.%Hoang%NULL%1, Kien T.%Nguyen%NULL%1, Thu T. M.%Pham%NULL%1, Shwu-Huey%Yang%NULL%1, Jane C.-J.%Chao%NULL%2, Jane C.-J.%Chao%NULL%0, Tuyen Van%Duong%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Federica%Pulvirenti%NULL%0, Francesco%Cinetto%NULL%1, Cinzia%Milito%NULL%1, Livia%Bonanni%NULL%1, Anna Maria%Pesce%NULL%1, Giorgia%Leodori%NULL%1, Giulia%Garzi%NULL%1, Marzia%Miglionico%NULL%1, Stefano%Tabolli%NULL%1, Isabella%Quinti%isabella.quinti@uniroma1.it%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Inc. on behalf of the American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Coronavirus Disease 2019 (COVID-19) epidemic emerged in Wuhan, China, spread nationwide and then onto half a dozen other countries between December 2019 and early 2020. The implementation of unprecedented strict quarantine measures in China has kept a large number of people in isolation and affected many aspects of people’s lives.
+ It has also triggered a wide variety of psychological problems, such as panic disorder, anxiety and depression.
+ This study is the first nationwide large-scale survey of psychological distress in the general population of China during the COVID-19 epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Jianyin%Qiu%NULL%0, Bin%Shen%NULL%1, Min%Zhao%NULL%4, Zhen%Wang%NULL%3, Zhen%Wang%NULL%0, Bin%Xie%NULL%1, Yifeng%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novel Corona Virus Disease (COVID-19) originating from China has rapidly crossed borders, infecting people throughout the whole world.
+ This phenomenon has led to a massive public reaction; the media has been reporting continuously across borders to keep all informed about the pandemic situation.
+ All these things are creating a lot of concern for people leading to heightened levels of anxiety.
+ Pandemics can lead to heightened levels of stress; Anxiety is a common response to any stressful situation.
+ This study attempted to assess the knowledge, attitude, anxiety experience, and perceived mental healthcare need among adult Indian population during the COVID-19 pandemic.
+ An online survey was conducted using a semi-structured questionnaire using a non-probability snowball sampling technique.
+ A total of 662 responses were received.
+</t>
+  </si>
+  <si>
+    <t>[Deblina%Roy%NULL%0, Sarvodaya%Tripathy%NULL%1, Sujita Kumar%Kar%NULL%1, Nivedita%Sharma%NULL%1, Sudhir Kumar%Verma%NULL%1, Vikas%Kaushal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin Y.Q.%Tan%NULL%0, Nicholas W.S.%Chew%NULL%0, Grace K.H.%Lee%NULL%3, Mingxue%Jing%NULL%4, Yihui%Goh%NULL%3, Leonard L.L.%Yeo%NULL%3, Ka%Zhang%NULL%2, Howe-Keat%Chin%NULL%2, Aftab%Ahmad%NULL%4, Faheem Ahmed%Khan%NULL%3, Ganesh Napolean%Shanmugam%NULL%2, Bernard P.L.%Chan%NULL%3, Sibi%Sunny%NULL%3, Bharatendu%Chandra%NULL%3, Jonathan J.Y.%Ong%NULL%3, Prakash R.%Paliwal%NULL%3, Lily Y.H.%Wong%NULL%3, Renarebecca%Sagayanathan%NULL%4, Jin Tao%Chen%NULL%4, Alison Ying%Ying Ng%NULL%3, Hock Luen%Teoh%NULL%4, Cyrus S.%Ho%NULL%6, Roger C.%Ho%NULL%9, Vijay K.%Sharma%NULL%6]</t>
+  </si>
+  <si>
+    <t>American College of Physicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The 2019 coronavirus disease (COVID-19) epidemic is a public health emergency of international concern and poses a challenge to psychological resilience.
+ Research data are needed to develop evidence-driven strategies to reduce adverse psychological impacts and psychiatric symptoms during the epidemic.
+ The aim of this study was to survey the general public in China to better understand their levels of psychological impact, anxiety, depression, and stress during the initial stage of the COVID-19 outbreak.
+ The data will be used for future reference.
+ Methods: From 31 January to 2 February 2020, we conducted an online survey using snowball sampling techniques.
+ The online survey collected information on demographic data, physical symptoms in the past 14 days, contact history with COVID-19, knowledge and concerns about COVID-19, precautionary measures against COVID-19, and additional information required with respect to COVID-19. Psychological impact was assessed by the Impact of Event Scale-Revised (IES-R), and mental health status was assessed by the Depression, Anxiety and Stress Scale (DASS-21).
+ Results: This study included 1210 respondents from 194 cities in China.
+ In total, 53.8% of respondents rated the psychological impact of the outbreak as moderate or severe; 16.5% reported moderate to severe depressive symptoms; 28.8% reported moderate to severe anxiety symptoms; and 8.1% reported moderate to severe stress levels.
+ Most respondents spent 20–24 h per day at home (84.7%); were worried about their family members contracting COVID-19 (75.2%); and were satisfied with the amount of health information available (75.1%).
+ Female gender, student status, specific physical symptoms (e.
+g.
+, myalgia, dizziness, coryza), and poor self-rated health status were significantly associated with a greater psychological impact of the outbreak and higher levels of stress, anxiety, and depression (p &amp;lt; 0.05).
+ Specific up-to-date and accurate health information (e.
+g.
+, treatment, local outbreak situation) and particular precautionary measures (e.
+g.
+, hand hygiene, wearing a mask) were associated with a lower psychological impact of the outbreak and lower levels of stress, anxiety, and depression (p &amp;lt; 0.05).
+ Conclusions: During the initial phase of the COVID-19 outbreak in China, more than half of the respondents rated the psychological impact as moderate-to-severe, and about one-third reported moderate-to-severe anxiety.
+ Our findings identify factors associated with a lower level of psychological impact and better mental health status that can be used to formulate psychological interventions to improve the mental health of vulnerable groups during the COVID-19 epidemic.
+</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0, Riyu%Pan%NULL%6, Riyu%Pan%NULL%0, Xiaoyang%Wan%NULL%4, Yilin%Tan%NULL%4, Linkang%Xu%NULL%4, Cyrus S.%Ho%NULL%0, Roger C.%Ho%NULL%0, Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Michael S.%Wolf%NULL%0, Marina%Serper%NULL%1, Lauren%Opsasnick%NULL%1, Rachel M.%O'Conor%NULL%1, Laura M.%Curtis%NULL%1, Julia Yoshino%Benavente%NULL%1, Guisselle%Wismer%NULL%1, Stephanie%Batio%NULL%1, Morgan%Eifler%NULL%1, Pauline%Zheng%NULL%1, Andrea%Russell%NULL%1, Marina%Arvanitis%NULL%1, Daniela%Ladner%NULL%1, Mary%Kwasny%NULL%1, Stephen D.%Persell%NULL%1, Theresa%Rowe%NULL%1, Jeffrey A.%Linder%NULL%1, Stacy C.%Bailey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0, Yan%Zhang%NULL%0, Desheng%Kong%NULL%2, Shiyue%Li%NULL%0, Ningxi%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0, Zhenxin%Liao%NULL%2, Haojie%Huang%NULL%2, Boyue%Jiang%NULL%2, Xueyan%Zhang%NULL%2, Yingwen%Wang%NULL%2, Mingyi%Zhao%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wen-rui%Zhang%NULL%0, Kun%Wang%NULL%0, Lu%Yin%NULL%0, Wen-feng%Zhao%NULL%3, Qing%Xue%NULL%3, Mao%Peng%NULL%3, Bao-quan%Min%NULL%3, Qing%Tian%NULL%3, Hai-xia%Leng%NULL%3, Jia-lin%Du%NULL%3, Hong%Chang%NULL%3, Yuan%Yang%NULL%0, Wei%Li%NULL%0, Fang-fang%Shangguan%NULL%3, Tian-yi%Yan%NULL%3, Hui-qing%Dong%NULL%3, Ying%Han%NULL%3, Yu-ping%Wang%NULL%3, Fiammetta%Cosci%NULL%3, Hong-xing%Wang%NULL%3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our study aimed to investigate the immediate impact of the COVID-19 pandemic on mental health and quality of life among local Chinese residents aged ≥18 years in Liaoning Province, mainland China.
+ An online survey was distributed through a social media platform between January and February 2020. Participants completed a modified validated questionnaire that assessed the Impact of Event Scale (IES), indicators of negative mental health impacts, social and family support, and mental health-related lifestyle changes.
+ A total of 263 participants (106 males and 157 females) completed the study.
+ The mean age of the participants was 37.7 ± 14.0 years, and 74.9% had a high level of education.
+ The mean IES score in the participants was 13.6 ± 7.7, reflecting a mild stressful impact.
+ Only 7.6% of participants had an IES score ≥26. The majority of participants (53.3%) did not feel helpless due to the pandemic.
+ On the other hand, 52.1% of participants felt horrified and apprehensive due to the pandemic.
+ Additionally, the majority of participants (57.8–77.9%) received increased support from friends and family members, increased shared feeling and caring with family members and others.
+ In conclusion, the COVID-19 pandemic was associated with mild stressful impact in our sample, even though the COVID-19 pandemic is still ongoing.
+ These findings would need to be verified in larger population studies.
+</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0, Zheng Feei%Ma%NULL%0, Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study analysed healthcare workers' (HCWs) knowledge, practices, and attitudes regarding coronavirus disease 2019 (COVID-19).
+ A cross-sectional survey was conducted from February 4th to February 8th, 2020, involving a total of 1357 HCWs across 10 hospitals in Henan, China.
+ Of those surveyed, 89% of HCWs had sufficient knowledge of COVID-19, more than 85% feared self-infection with the virus, and 89.7% followed correct practices regarding COVID-19. In addition to knowledge level, some risk factors including work experience and job category influenced HCWs' attitudes and practice concerning COVID-19. Measures must be taken to protect HCWs from risks linked to job category, work experience, working hours, educational attainment, and frontline HCWs.
+</t>
+  </si>
+  <si>
+    <t>[M.%Zhang%NULL%0, M.%Zhou%NULL%1, F.%Tang%NULL%1, Y.%Wang%NULL%1, H.%Nie%NULL%1, L.%Zhang%NULL%1, G.%You%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Healthcare Infection Society. Published by Elsevier Ltd.</t>
   </si>
 </sst>
 </file>
@@ -3115,7 +3469,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>801</v>
+        <v>873</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -3127,10 +3481,10 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3">
@@ -3147,7 +3501,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>802</v>
+        <v>875</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -3159,10 +3513,10 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
@@ -3179,7 +3533,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>803</v>
+        <v>877</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -3191,10 +3545,10 @@
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5">
@@ -3211,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>804</v>
+        <v>879</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
@@ -3223,10 +3577,10 @@
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6">
@@ -3237,28 +3591,28 @@
         <v>43891.0</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>649</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -3269,28 +3623,28 @@
         <v>43891.0</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>456</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>649</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>650</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -3304,10 +3658,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>881</v>
       </c>
       <c r="E8" t="s">
-        <v>805</v>
+        <v>882</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -3319,10 +3673,10 @@
         <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9">
@@ -3333,22 +3687,22 @@
         <v>43910.0</v>
       </c>
       <c r="C9" t="s">
-        <v>777</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>806</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>807</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>780</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>781</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
         <v>42</v>
@@ -3365,25 +3719,25 @@
         <v>43525.0</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>808</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>593</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -3400,10 +3754,10 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>884</v>
       </c>
       <c r="E11" t="s">
-        <v>809</v>
+        <v>885</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
@@ -3415,10 +3769,10 @@
         <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12">
@@ -3432,10 +3786,10 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>887</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>888</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
@@ -3447,10 +3801,10 @@
         <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13">
@@ -3467,7 +3821,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>811</v>
+        <v>890</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
@@ -3479,10 +3833,10 @@
         <v>86</v>
       </c>
       <c r="I13" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14">
@@ -3496,10 +3850,10 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>892</v>
       </c>
       <c r="E14" t="s">
-        <v>812</v>
+        <v>893</v>
       </c>
       <c r="F14" t="s">
         <v>90</v>
@@ -3511,10 +3865,10 @@
         <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15">
@@ -3528,10 +3882,10 @@
         <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>894</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>895</v>
       </c>
       <c r="F15" t="s">
         <v>95</v>
@@ -3543,10 +3897,10 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>880</v>
       </c>
     </row>
     <row r="16">
@@ -3563,7 +3917,7 @@
         <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>814</v>
+        <v>896</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3575,10 +3929,10 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>897</v>
       </c>
     </row>
     <row r="17">
@@ -3589,28 +3943,28 @@
         <v>43922.0</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
         <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>660</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -3624,10 +3978,10 @@
         <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>898</v>
       </c>
       <c r="E18" t="s">
-        <v>815</v>
+        <v>899</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3639,10 +3993,10 @@
         <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19">
@@ -3659,7 +4013,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>816</v>
+        <v>901</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3671,10 +4025,10 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20">
@@ -3688,10 +4042,10 @@
         <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>903</v>
       </c>
       <c r="E20" t="s">
-        <v>817</v>
+        <v>904</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3703,10 +4057,10 @@
         <v>115</v>
       </c>
       <c r="I20" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21">
@@ -3720,10 +4074,10 @@
         <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>906</v>
       </c>
       <c r="E21" t="s">
-        <v>818</v>
+        <v>907</v>
       </c>
       <c r="F21" t="s">
         <v>119</v>
@@ -3735,10 +4089,10 @@
         <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22">
@@ -3755,7 +4109,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>819</v>
+        <v>908</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3767,10 +4121,10 @@
         <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>909</v>
       </c>
     </row>
     <row r="23">
@@ -3784,10 +4138,10 @@
         <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>910</v>
       </c>
       <c r="E23" t="s">
-        <v>820</v>
+        <v>911</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3799,10 +4153,10 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24">
@@ -3813,28 +4167,28 @@
         <v>43908.0</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>471</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>668</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
         <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>669</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3851,7 +4205,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>821</v>
+        <v>912</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -3863,10 +4217,10 @@
         <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26">
@@ -3883,7 +4237,7 @@
         <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>822</v>
+        <v>913</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -3895,10 +4249,10 @@
         <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>876</v>
       </c>
     </row>
     <row r="27">
@@ -3915,7 +4269,7 @@
         <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>823</v>
+        <v>914</v>
       </c>
       <c r="F27" t="s">
         <v>141</v>
@@ -3927,10 +4281,10 @@
         <v>142</v>
       </c>
       <c r="I27" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>876</v>
       </c>
     </row>
     <row r="28">
@@ -3947,7 +4301,7 @@
         <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="F28" t="s">
         <v>146</v>
@@ -3959,10 +4313,10 @@
         <v>147</v>
       </c>
       <c r="I28" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29">
@@ -3976,10 +4330,10 @@
         <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>916</v>
       </c>
       <c r="E29" t="s">
-        <v>825</v>
+        <v>917</v>
       </c>
       <c r="F29" t="s">
         <v>151</v>
@@ -3991,10 +4345,10 @@
         <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30">
@@ -4008,10 +4362,10 @@
         <v>152</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>918</v>
       </c>
       <c r="E30" t="s">
-        <v>826</v>
+        <v>919</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -4023,10 +4377,10 @@
         <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
